--- a/9장/행정구역_시군구_별__성별_인구수.xlsx
+++ b/9장/행정구역_시군구_별__성별_인구수.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hangyeong-eun/Documents/My_Python/9장/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D894296-1A80-224A-9F03-DC897DFB4D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22574C46-F976-B845-B6E1-C0219F94E63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="453">
   <si>
     <t>전국</t>
   </si>
@@ -1374,6 +1374,15 @@
   <si>
     <t>행정구역(시군구)별(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총인구수 (명)</t>
+  </si>
+  <si>
+    <t>남자인구수 (명)</t>
+  </si>
+  <si>
+    <t>여자인구수 (명)</t>
   </si>
 </sst>
 </file>
@@ -1467,18 +1476,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1793,2356 +1805,4993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1">
+    <row r="1" spans="1:5" ht="20" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>448</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="7">
+        <v>51459626</v>
+      </c>
+      <c r="D2" s="7">
+        <v>25649509</v>
+      </c>
+      <c r="E2" s="7">
+        <v>25810117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="7">
+        <v>9443722</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4578459</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4865263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="7">
+        <v>141861</v>
+      </c>
+      <c r="D4" s="7">
+        <v>68601</v>
+      </c>
+      <c r="E4" s="7">
+        <v>73260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="7">
+        <v>120648</v>
+      </c>
+      <c r="D5" s="7">
+        <v>58643</v>
+      </c>
+      <c r="E5" s="7">
+        <v>62005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="7">
+        <v>219102</v>
+      </c>
+      <c r="D6" s="7">
+        <v>105303</v>
+      </c>
+      <c r="E6" s="7">
+        <v>113799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="7">
+        <v>281694</v>
+      </c>
+      <c r="D7" s="7">
+        <v>137075</v>
+      </c>
+      <c r="E7" s="7">
+        <v>144619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="7">
+        <v>337900</v>
+      </c>
+      <c r="D8" s="7">
+        <v>162844</v>
+      </c>
+      <c r="E8" s="7">
+        <v>175056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="7">
+        <v>337273</v>
+      </c>
+      <c r="D9" s="7">
+        <v>166113</v>
+      </c>
+      <c r="E9" s="7">
+        <v>171160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="7">
+        <v>385976</v>
+      </c>
+      <c r="D10" s="7">
+        <v>189869</v>
+      </c>
+      <c r="E10" s="7">
+        <v>196107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="7">
+        <v>431581</v>
+      </c>
+      <c r="D11" s="7">
+        <v>207584</v>
+      </c>
+      <c r="E11" s="7">
+        <v>223997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="7">
+        <v>294429</v>
+      </c>
+      <c r="D12" s="7">
+        <v>143000</v>
+      </c>
+      <c r="E12" s="7">
+        <v>151429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="7">
+        <v>312427</v>
+      </c>
+      <c r="D13" s="7">
+        <v>151811</v>
+      </c>
+      <c r="E13" s="7">
+        <v>160616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="7">
+        <v>505058</v>
+      </c>
+      <c r="D14" s="7">
+        <v>242826</v>
+      </c>
+      <c r="E14" s="7">
+        <v>262232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="7">
+        <v>468988</v>
+      </c>
+      <c r="D15" s="7">
+        <v>223764</v>
+      </c>
+      <c r="E15" s="7">
+        <v>245224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="7">
+        <v>305113</v>
+      </c>
+      <c r="D16" s="7">
+        <v>145287</v>
+      </c>
+      <c r="E16" s="7">
+        <v>159826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="7">
+        <v>364698</v>
+      </c>
+      <c r="D17" s="7">
+        <v>171062</v>
+      </c>
+      <c r="E17" s="7">
+        <v>193636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="7">
+        <v>441749</v>
+      </c>
+      <c r="D18" s="7">
+        <v>216133</v>
+      </c>
+      <c r="E18" s="7">
+        <v>225616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="7">
+        <v>570011</v>
+      </c>
+      <c r="D19" s="7">
+        <v>273644</v>
+      </c>
+      <c r="E19" s="7">
+        <v>296367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="7">
+        <v>394212</v>
+      </c>
+      <c r="D20" s="7">
+        <v>193834</v>
+      </c>
+      <c r="E20" s="7">
+        <v>200378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="7">
+        <v>230156</v>
+      </c>
+      <c r="D21" s="7">
+        <v>116062</v>
+      </c>
+      <c r="E21" s="7">
+        <v>114094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="C22" s="7">
+        <v>375849</v>
+      </c>
+      <c r="D22" s="7">
+        <v>184845</v>
+      </c>
+      <c r="E22" s="7">
+        <v>191004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="C23" s="7">
+        <v>382747</v>
+      </c>
+      <c r="D23" s="7">
+        <v>185098</v>
+      </c>
+      <c r="E23" s="7">
+        <v>197649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="C24" s="7">
+        <v>487201</v>
+      </c>
+      <c r="D24" s="7">
+        <v>244980</v>
+      </c>
+      <c r="E24" s="7">
+        <v>242221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
+      <c r="C25" s="7">
+        <v>404902</v>
+      </c>
+      <c r="D25" s="7">
+        <v>193465</v>
+      </c>
+      <c r="E25" s="7">
+        <v>211437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="C26" s="7">
+        <v>529946</v>
+      </c>
+      <c r="D26" s="7">
+        <v>253570</v>
+      </c>
+      <c r="E26" s="7">
+        <v>276376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="C27" s="7">
+        <v>659788</v>
+      </c>
+      <c r="D27" s="7">
+        <v>317743</v>
+      </c>
+      <c r="E27" s="7">
+        <v>342045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="C28" s="7">
+        <v>460413</v>
+      </c>
+      <c r="D28" s="7">
+        <v>225303</v>
+      </c>
+      <c r="E28" s="7">
+        <v>235110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
+      <c r="C29" s="7">
+        <v>3322286</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1622749</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1699537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="C30" s="7">
+        <v>39936</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19377</v>
+      </c>
+      <c r="E30" s="7">
+        <v>20559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
+      <c r="C31" s="7">
+        <v>105358</v>
+      </c>
+      <c r="D31" s="7">
+        <v>50911</v>
+      </c>
+      <c r="E31" s="7">
+        <v>54447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
+      <c r="C32" s="7">
+        <v>86948</v>
+      </c>
+      <c r="D32" s="7">
+        <v>42512</v>
+      </c>
+      <c r="E32" s="7">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
+      <c r="C33" s="7">
+        <v>108505</v>
+      </c>
+      <c r="D33" s="7">
+        <v>53391</v>
+      </c>
+      <c r="E33" s="7">
+        <v>55114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
+      <c r="C34" s="7">
+        <v>353568</v>
+      </c>
+      <c r="D34" s="7">
+        <v>170113</v>
+      </c>
+      <c r="E34" s="7">
+        <v>183455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
+      <c r="C35" s="7">
+        <v>273790</v>
+      </c>
+      <c r="D35" s="7">
+        <v>132632</v>
+      </c>
+      <c r="E35" s="7">
+        <v>141158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
+      <c r="C36" s="7">
+        <v>257147</v>
+      </c>
+      <c r="D36" s="7">
+        <v>125514</v>
+      </c>
+      <c r="E36" s="7">
+        <v>131633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
+      <c r="C37" s="7">
+        <v>279770</v>
+      </c>
+      <c r="D37" s="7">
+        <v>137808</v>
+      </c>
+      <c r="E37" s="7">
+        <v>141962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
+      <c r="C38" s="7">
+        <v>387840</v>
+      </c>
+      <c r="D38" s="7">
+        <v>186088</v>
+      </c>
+      <c r="E38" s="7">
+        <v>201752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
+      <c r="C39" s="7">
+        <v>302844</v>
+      </c>
+      <c r="D39" s="7">
+        <v>150467</v>
+      </c>
+      <c r="E39" s="7">
+        <v>152377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
+      <c r="C40" s="7">
+        <v>222264</v>
+      </c>
+      <c r="D40" s="7">
+        <v>108623</v>
+      </c>
+      <c r="E40" s="7">
+        <v>113641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
+      <c r="C41" s="7">
+        <v>143611</v>
+      </c>
+      <c r="D41" s="7">
+        <v>74470</v>
+      </c>
+      <c r="E41" s="7">
+        <v>69141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
+      <c r="C42" s="7">
+        <v>204377</v>
+      </c>
+      <c r="D42" s="7">
+        <v>98070</v>
+      </c>
+      <c r="E42" s="7">
+        <v>106307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
+      <c r="C43" s="7">
+        <v>174694</v>
+      </c>
+      <c r="D43" s="7">
+        <v>82180</v>
+      </c>
+      <c r="E43" s="7">
+        <v>92514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
+      <c r="C44" s="7">
+        <v>203331</v>
+      </c>
+      <c r="D44" s="7">
+        <v>102331</v>
+      </c>
+      <c r="E44" s="7">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
+      <c r="C45" s="7">
+        <v>178303</v>
+      </c>
+      <c r="D45" s="7">
+        <v>88262</v>
+      </c>
+      <c r="E45" s="7">
+        <v>90041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
+      <c r="C46" s="7">
+        <v>2366852</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1164728</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1202124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
+      <c r="C47" s="7">
+        <v>79241</v>
+      </c>
+      <c r="D47" s="7">
+        <v>38004</v>
+      </c>
+      <c r="E47" s="7">
+        <v>41237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
+      <c r="C48" s="7">
+        <v>340213</v>
+      </c>
+      <c r="D48" s="7">
+        <v>167121</v>
+      </c>
+      <c r="E48" s="7">
+        <v>173092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
+      <c r="C49" s="7">
+        <v>160802</v>
+      </c>
+      <c r="D49" s="7">
+        <v>80125</v>
+      </c>
+      <c r="E49" s="7">
+        <v>80677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
+      <c r="C50" s="7">
+        <v>141822</v>
+      </c>
+      <c r="D50" s="7">
+        <v>67971</v>
+      </c>
+      <c r="E50" s="7">
+        <v>73851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
+      <c r="C51" s="7">
+        <v>432087</v>
+      </c>
+      <c r="D51" s="7">
+        <v>214817</v>
+      </c>
+      <c r="E51" s="7">
+        <v>217270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
+      <c r="C52" s="7">
+        <v>412302</v>
+      </c>
+      <c r="D52" s="7">
+        <v>199183</v>
+      </c>
+      <c r="E52" s="7">
+        <v>213119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
+      <c r="C53" s="7">
+        <v>537179</v>
+      </c>
+      <c r="D53" s="7">
+        <v>264106</v>
+      </c>
+      <c r="E53" s="7">
+        <v>273073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
+      <c r="C54" s="7">
+        <v>263206</v>
+      </c>
+      <c r="D54" s="7">
+        <v>133401</v>
+      </c>
+      <c r="E54" s="7">
+        <v>129805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
+      <c r="C55" s="7">
+        <v>2962388</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1483026</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1479362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
+      <c r="C56" s="7">
+        <v>151310</v>
+      </c>
+      <c r="D56" s="7">
+        <v>78591</v>
+      </c>
+      <c r="E56" s="7">
+        <v>72719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
+      <c r="C59" s="7">
+        <v>58574</v>
+      </c>
+      <c r="D59" s="7">
+        <v>29502</v>
+      </c>
+      <c r="E59" s="7">
+        <v>29072</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
+      <c r="C60" s="7">
+        <v>407190</v>
+      </c>
+      <c r="D60" s="7">
+        <v>204936</v>
+      </c>
+      <c r="E60" s="7">
+        <v>202254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
+      <c r="C61" s="7">
+        <v>385884</v>
+      </c>
+      <c r="D61" s="7">
+        <v>191609</v>
+      </c>
+      <c r="E61" s="7">
+        <v>194275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
+      <c r="C62" s="7">
+        <v>507567</v>
+      </c>
+      <c r="D62" s="7">
+        <v>252102</v>
+      </c>
+      <c r="E62" s="7">
+        <v>255465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
+      <c r="C63" s="7">
+        <v>489329</v>
+      </c>
+      <c r="D63" s="7">
+        <v>241434</v>
+      </c>
+      <c r="E63" s="7">
+        <v>247895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="20" customHeight="1">
+      <c r="C64" s="7">
+        <v>290068</v>
+      </c>
+      <c r="D64" s="7">
+        <v>144500</v>
+      </c>
+      <c r="E64" s="7">
+        <v>145568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="20" customHeight="1">
+      <c r="C65" s="7">
+        <v>581974</v>
+      </c>
+      <c r="D65" s="7">
+        <v>293656</v>
+      </c>
+      <c r="E65" s="7">
+        <v>288318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="20" customHeight="1">
+      <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="20" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="20" customHeight="1">
+      <c r="C67" s="7">
+        <v>69809</v>
+      </c>
+      <c r="D67" s="7">
+        <v>34899</v>
+      </c>
+      <c r="E67" s="7">
+        <v>34910</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="20" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="20" customHeight="1">
+      <c r="C68" s="7">
+        <v>20683</v>
+      </c>
+      <c r="D68" s="7">
+        <v>11797</v>
+      </c>
+      <c r="E68" s="7">
+        <v>8886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="20" customHeight="1">
+      <c r="C69" s="7">
+        <v>1432651</v>
+      </c>
+      <c r="D69" s="7">
+        <v>708119</v>
+      </c>
+      <c r="E69" s="7">
+        <v>724532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="20" customHeight="1">
+      <c r="C70" s="7">
+        <v>105798</v>
+      </c>
+      <c r="D70" s="7">
+        <v>52235</v>
+      </c>
+      <c r="E70" s="7">
+        <v>53563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="20" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="20" customHeight="1">
+      <c r="C71" s="7">
+        <v>287720</v>
+      </c>
+      <c r="D71" s="7">
+        <v>140932</v>
+      </c>
+      <c r="E71" s="7">
+        <v>146788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="20" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="20" customHeight="1">
+      <c r="C72" s="7">
+        <v>213079</v>
+      </c>
+      <c r="D72" s="7">
+        <v>102250</v>
+      </c>
+      <c r="E72" s="7">
+        <v>110829</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="20" customHeight="1">
+      <c r="C73" s="7">
+        <v>424720</v>
+      </c>
+      <c r="D73" s="7">
+        <v>210413</v>
+      </c>
+      <c r="E73" s="7">
+        <v>214307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="20" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="20" customHeight="1">
+      <c r="C74" s="7">
+        <v>401334</v>
+      </c>
+      <c r="D74" s="7">
+        <v>202289</v>
+      </c>
+      <c r="E74" s="7">
+        <v>199045</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="20" customHeight="1">
+      <c r="C75" s="7">
+        <v>1446863</v>
+      </c>
+      <c r="D75" s="7">
+        <v>721745</v>
+      </c>
+      <c r="E75" s="7">
+        <v>725118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="20" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="20" customHeight="1">
+      <c r="C76" s="7">
+        <v>220286</v>
+      </c>
+      <c r="D76" s="7">
+        <v>110918</v>
+      </c>
+      <c r="E76" s="7">
+        <v>109368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="20" customHeight="1">
+      <c r="C77" s="7">
+        <v>227934</v>
+      </c>
+      <c r="D77" s="7">
+        <v>112058</v>
+      </c>
+      <c r="E77" s="7">
+        <v>115876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="20" customHeight="1">
+      <c r="C78" s="7">
+        <v>471112</v>
+      </c>
+      <c r="D78" s="7">
+        <v>231541</v>
+      </c>
+      <c r="E78" s="7">
+        <v>239571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="20" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
+      <c r="C79" s="7">
+        <v>354066</v>
+      </c>
+      <c r="D79" s="7">
+        <v>179101</v>
+      </c>
+      <c r="E79" s="7">
+        <v>174965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="20" customHeight="1">
+      <c r="C80" s="7">
+        <v>173465</v>
+      </c>
+      <c r="D80" s="7">
+        <v>88127</v>
+      </c>
+      <c r="E80" s="7">
+        <v>85338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="20" customHeight="1">
+      <c r="C81" s="7">
+        <v>1111707</v>
+      </c>
+      <c r="D81" s="7">
+        <v>570960</v>
+      </c>
+      <c r="E81" s="7">
+        <v>540747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="20" customHeight="1">
+      <c r="C82" s="7">
+        <v>208846</v>
+      </c>
+      <c r="D82" s="7">
+        <v>105633</v>
+      </c>
+      <c r="E82" s="7">
+        <v>103213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="20" customHeight="1">
+      <c r="C83" s="7">
+        <v>310784</v>
+      </c>
+      <c r="D83" s="7">
+        <v>158411</v>
+      </c>
+      <c r="E83" s="7">
+        <v>152373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="20" customHeight="1">
+      <c r="C84" s="7">
+        <v>151986</v>
+      </c>
+      <c r="D84" s="7">
+        <v>79365</v>
+      </c>
+      <c r="E84" s="7">
+        <v>72621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="20" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="20" customHeight="1">
+      <c r="C85" s="7">
+        <v>218539</v>
+      </c>
+      <c r="D85" s="7">
+        <v>112940</v>
+      </c>
+      <c r="E85" s="7">
+        <v>105599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="20" customHeight="1">
+      <c r="C86" s="7">
+        <v>221552</v>
+      </c>
+      <c r="D86" s="7">
+        <v>114611</v>
+      </c>
+      <c r="E86" s="7">
+        <v>106941</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="20" customHeight="1">
+      <c r="C87" s="7">
+        <v>382258</v>
+      </c>
+      <c r="D87" s="7">
+        <v>190683</v>
+      </c>
+      <c r="E87" s="7">
+        <v>191575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="20" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="20" customHeight="1">
+      <c r="C88" s="7">
+        <v>382258</v>
+      </c>
+      <c r="D88" s="7">
+        <v>190683</v>
+      </c>
+      <c r="E88" s="7">
+        <v>191575</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="20" customHeight="1">
+      <c r="C89" s="7">
+        <v>13579508</v>
+      </c>
+      <c r="D89" s="7">
+        <v>6835151</v>
+      </c>
+      <c r="E89" s="7">
+        <v>6744357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="20" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="20" customHeight="1">
+      <c r="C90" s="7">
+        <v>1189654</v>
+      </c>
+      <c r="D90" s="7">
+        <v>599198</v>
+      </c>
+      <c r="E90" s="7">
+        <v>590456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="20" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="20" customHeight="1">
+      <c r="C91" s="7">
+        <v>271305</v>
+      </c>
+      <c r="D91" s="7">
+        <v>136511</v>
+      </c>
+      <c r="E91" s="7">
+        <v>134794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="20" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="20" customHeight="1">
+      <c r="C92" s="7">
+        <v>366453</v>
+      </c>
+      <c r="D92" s="7">
+        <v>185270</v>
+      </c>
+      <c r="E92" s="7">
+        <v>181183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="20" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="20" customHeight="1">
+      <c r="C93" s="7">
+        <v>191423</v>
+      </c>
+      <c r="D93" s="7">
+        <v>96475</v>
+      </c>
+      <c r="E93" s="7">
+        <v>94948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="20" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="20" customHeight="1">
+      <c r="C94" s="7">
+        <v>360473</v>
+      </c>
+      <c r="D94" s="7">
+        <v>180942</v>
+      </c>
+      <c r="E94" s="7">
+        <v>179531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="20" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="20" customHeight="1">
+      <c r="C95" s="7">
+        <v>920667</v>
+      </c>
+      <c r="D95" s="7">
+        <v>455970</v>
+      </c>
+      <c r="E95" s="7">
+        <v>464697</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="20" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="20" customHeight="1">
+      <c r="C96" s="7">
+        <v>232663</v>
+      </c>
+      <c r="D96" s="7">
+        <v>117974</v>
+      </c>
+      <c r="E96" s="7">
+        <v>114689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="20" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="20" customHeight="1">
+      <c r="C97" s="7">
+        <v>205893</v>
+      </c>
+      <c r="D97" s="7">
+        <v>104258</v>
+      </c>
+      <c r="E97" s="7">
+        <v>101635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="20" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="20" customHeight="1">
+      <c r="C98" s="7">
+        <v>482111</v>
+      </c>
+      <c r="D98" s="7">
+        <v>233738</v>
+      </c>
+      <c r="E98" s="7">
+        <v>248373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="20" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="20" customHeight="1">
+      <c r="C99" s="7">
+        <v>463324</v>
+      </c>
+      <c r="D99" s="7">
+        <v>227935</v>
+      </c>
+      <c r="E99" s="7">
+        <v>235389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="20" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="20" customHeight="1">
+      <c r="C100" s="7">
+        <v>548372</v>
+      </c>
+      <c r="D100" s="7">
+        <v>270992</v>
+      </c>
+      <c r="E100" s="7">
+        <v>277380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="20" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="20" customHeight="1">
+      <c r="C101" s="7">
+        <v>234331</v>
+      </c>
+      <c r="D101" s="7">
+        <v>117050</v>
+      </c>
+      <c r="E101" s="7">
+        <v>117281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="20" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="20" customHeight="1">
+      <c r="C102" s="7">
+        <v>314041</v>
+      </c>
+      <c r="D102" s="7">
+        <v>153942</v>
+      </c>
+      <c r="E102" s="7">
+        <v>160099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="20" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="20" customHeight="1">
+      <c r="C103" s="7">
+        <v>792561</v>
+      </c>
+      <c r="D103" s="7">
+        <v>392472</v>
+      </c>
+      <c r="E103" s="7">
+        <v>400089</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="20" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="20" customHeight="1">
+      <c r="C104" s="7">
+        <v>288366</v>
+      </c>
+      <c r="D104" s="7">
+        <v>141961</v>
+      </c>
+      <c r="E104" s="7">
+        <v>146405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="20" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="20" customHeight="1">
+      <c r="C105" s="7">
+        <v>576192</v>
+      </c>
+      <c r="D105" s="7">
+        <v>301796</v>
+      </c>
+      <c r="E105" s="7">
+        <v>274396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="20" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="20" customHeight="1">
+      <c r="C106" s="7">
+        <v>0</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="20" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="20" customHeight="1">
+      <c r="C107" s="7">
+        <v>0</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="20" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="20" customHeight="1">
+      <c r="C108" s="7">
+        <v>91980</v>
+      </c>
+      <c r="D108" s="7">
+        <v>45875</v>
+      </c>
+      <c r="E108" s="7">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="20" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="20" customHeight="1">
+      <c r="C109" s="7">
+        <v>644583</v>
+      </c>
+      <c r="D109" s="7">
+        <v>330483</v>
+      </c>
+      <c r="E109" s="7">
+        <v>314100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="20" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="20" customHeight="1">
+      <c r="C110" s="7">
+        <v>346589</v>
+      </c>
+      <c r="D110" s="7">
+        <v>176832</v>
+      </c>
+      <c r="E110" s="7">
+        <v>169757</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="20" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="20" customHeight="1">
+      <c r="C111" s="7">
+        <v>297994</v>
+      </c>
+      <c r="D111" s="7">
+        <v>153651</v>
+      </c>
+      <c r="E111" s="7">
+        <v>144343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="20" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="20" customHeight="1">
+      <c r="C112" s="7">
+        <v>1074784</v>
+      </c>
+      <c r="D112" s="7">
+        <v>524837</v>
+      </c>
+      <c r="E112" s="7">
+        <v>549947</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="20" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="20" customHeight="1">
+      <c r="C113" s="7">
+        <v>486427</v>
+      </c>
+      <c r="D113" s="7">
+        <v>239515</v>
+      </c>
+      <c r="E113" s="7">
+        <v>246912</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="20" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="20" customHeight="1">
+      <c r="C114" s="7">
+        <v>297055</v>
+      </c>
+      <c r="D114" s="7">
+        <v>144256</v>
+      </c>
+      <c r="E114" s="7">
+        <v>152799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="20" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="20" customHeight="1">
+      <c r="C115" s="7">
+        <v>291302</v>
+      </c>
+      <c r="D115" s="7">
+        <v>141066</v>
+      </c>
+      <c r="E115" s="7">
+        <v>150236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="20" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="20" customHeight="1">
+      <c r="C116" s="7">
+        <v>77818</v>
+      </c>
+      <c r="D116" s="7">
+        <v>38251</v>
+      </c>
+      <c r="E116" s="7">
+        <v>39567</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="20" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="20" customHeight="1">
+      <c r="C117" s="7">
+        <v>189008</v>
+      </c>
+      <c r="D117" s="7">
+        <v>93626</v>
+      </c>
+      <c r="E117" s="7">
+        <v>95382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="20" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="20" customHeight="1">
+      <c r="C118" s="7">
+        <v>737352</v>
+      </c>
+      <c r="D118" s="7">
+        <v>366348</v>
+      </c>
+      <c r="E118" s="7">
+        <v>371004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="20" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="20" customHeight="1">
+      <c r="C119" s="7">
+        <v>0</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="20" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="20" customHeight="1">
+      <c r="C120" s="7">
+        <v>229821</v>
+      </c>
+      <c r="D120" s="7">
+        <v>119603</v>
+      </c>
+      <c r="E120" s="7">
+        <v>110218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="20" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="20" customHeight="1">
+      <c r="C121" s="7">
+        <v>512168</v>
+      </c>
+      <c r="D121" s="7">
+        <v>267503</v>
+      </c>
+      <c r="E121" s="7">
+        <v>244665</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="20" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="20" customHeight="1">
+      <c r="C122" s="7">
+        <v>266735</v>
+      </c>
+      <c r="D122" s="7">
+        <v>132379</v>
+      </c>
+      <c r="E122" s="7">
+        <v>134356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="20" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="20" customHeight="1">
+      <c r="C123" s="7">
+        <v>160563</v>
+      </c>
+      <c r="D123" s="7">
+        <v>79640</v>
+      </c>
+      <c r="E123" s="7">
+        <v>80923</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="20" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="20" customHeight="1">
+      <c r="C124" s="7">
+        <v>324674</v>
+      </c>
+      <c r="D124" s="7">
+        <v>162159</v>
+      </c>
+      <c r="E124" s="7">
+        <v>162515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="20" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="20" customHeight="1">
+      <c r="C125" s="7">
+        <v>1076369</v>
+      </c>
+      <c r="D125" s="7">
+        <v>534236</v>
+      </c>
+      <c r="E125" s="7">
+        <v>542133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="20" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="20" customHeight="1">
+      <c r="C126" s="7">
+        <v>260930</v>
+      </c>
+      <c r="D126" s="7">
+        <v>134140</v>
+      </c>
+      <c r="E126" s="7">
+        <v>126790</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="20" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="20" customHeight="1">
+      <c r="C127" s="7">
+        <v>438547</v>
+      </c>
+      <c r="D127" s="7">
+        <v>216337</v>
+      </c>
+      <c r="E127" s="7">
+        <v>222210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="20" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="20" customHeight="1">
+      <c r="C128" s="7">
+        <v>376892</v>
+      </c>
+      <c r="D128" s="7">
+        <v>183759</v>
+      </c>
+      <c r="E128" s="7">
+        <v>193133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="20" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="20" customHeight="1">
+      <c r="C129" s="7">
+        <v>493938</v>
+      </c>
+      <c r="D129" s="7">
+        <v>250677</v>
+      </c>
+      <c r="E129" s="7">
+        <v>243261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="20" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="20" customHeight="1">
+      <c r="C130" s="7">
+        <v>224077</v>
+      </c>
+      <c r="D130" s="7">
+        <v>116626</v>
+      </c>
+      <c r="E130" s="7">
+        <v>107451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="20" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="20" customHeight="1">
+      <c r="C131" s="7">
+        <v>189475</v>
+      </c>
+      <c r="D131" s="7">
+        <v>97870</v>
+      </c>
+      <c r="E131" s="7">
+        <v>91605</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="20" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="20" customHeight="1">
+      <c r="C132" s="7">
+        <v>484071</v>
+      </c>
+      <c r="D132" s="7">
+        <v>241884</v>
+      </c>
+      <c r="E132" s="7">
+        <v>242187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="20" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="20" customHeight="1">
+      <c r="C133" s="7">
+        <v>904267</v>
+      </c>
+      <c r="D133" s="7">
+        <v>470143</v>
+      </c>
+      <c r="E133" s="7">
+        <v>434124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="20" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="20" customHeight="1">
+      <c r="C134" s="7">
+        <v>0</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="20" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="20" customHeight="1">
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0</v>
+      </c>
+      <c r="E135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="20" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="20" customHeight="1">
+      <c r="C136" s="7">
+        <v>391722</v>
+      </c>
+      <c r="D136" s="7">
+        <v>199848</v>
+      </c>
+      <c r="E136" s="7">
+        <v>191874</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="20" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="20" customHeight="1">
+      <c r="C137" s="7">
+        <v>239697</v>
+      </c>
+      <c r="D137" s="7">
+        <v>121383</v>
+      </c>
+      <c r="E137" s="7">
+        <v>118314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="20" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="20" customHeight="1">
+      <c r="C138" s="7">
+        <v>147171</v>
+      </c>
+      <c r="D138" s="7">
+        <v>77965</v>
+      </c>
+      <c r="E138" s="7">
+        <v>69206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="20" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="20" customHeight="1">
+      <c r="C139" s="7">
+        <v>113027</v>
+      </c>
+      <c r="D139" s="7">
+        <v>57467</v>
+      </c>
+      <c r="E139" s="7">
+        <v>55560</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="20" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="20" customHeight="1">
+      <c r="C140" s="7">
+        <v>42240</v>
+      </c>
+      <c r="D140" s="7">
+        <v>22187</v>
+      </c>
+      <c r="E140" s="7">
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="20" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="20" customHeight="1">
+      <c r="C141" s="7">
+        <v>62219</v>
+      </c>
+      <c r="D141" s="7">
+        <v>32112</v>
+      </c>
+      <c r="E141" s="7">
+        <v>30107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="20" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="20" customHeight="1">
+      <c r="C142" s="7">
+        <v>122613</v>
+      </c>
+      <c r="D142" s="7">
+        <v>61725</v>
+      </c>
+      <c r="E142" s="7">
+        <v>60888</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="20" customHeight="1">
+      <c r="C143" s="7">
+        <v>1537339</v>
+      </c>
+      <c r="D143" s="7">
+        <v>773491</v>
+      </c>
+      <c r="E143" s="7">
+        <v>763848</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="20" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="20" customHeight="1">
+      <c r="C144" s="7">
+        <v>286466</v>
+      </c>
+      <c r="D144" s="7">
+        <v>141392</v>
+      </c>
+      <c r="E144" s="7">
+        <v>145074</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="20" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="20" customHeight="1">
+      <c r="C145" s="7">
+        <v>360581</v>
+      </c>
+      <c r="D145" s="7">
+        <v>178792</v>
+      </c>
+      <c r="E145" s="7">
+        <v>181789</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="20" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="20" customHeight="1">
+      <c r="C146" s="7">
+        <v>211742</v>
+      </c>
+      <c r="D146" s="7">
+        <v>105042</v>
+      </c>
+      <c r="E146" s="7">
+        <v>106700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="20" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="20" customHeight="1">
+      <c r="C147" s="7">
+        <v>89421</v>
+      </c>
+      <c r="D147" s="7">
+        <v>45439</v>
+      </c>
+      <c r="E147" s="7">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="20" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="20" customHeight="1">
+      <c r="C148" s="7">
+        <v>39553</v>
+      </c>
+      <c r="D148" s="7">
+        <v>19948</v>
+      </c>
+      <c r="E148" s="7">
+        <v>19605</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="20" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="20" customHeight="1">
+      <c r="C149" s="7">
+        <v>82781</v>
+      </c>
+      <c r="D149" s="7">
+        <v>41034</v>
+      </c>
+      <c r="E149" s="7">
+        <v>41747</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="20" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="20" customHeight="1">
+      <c r="C150" s="7">
+        <v>63687</v>
+      </c>
+      <c r="D150" s="7">
+        <v>32280</v>
+      </c>
+      <c r="E150" s="7">
+        <v>31407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="20" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="20" customHeight="1">
+      <c r="C151" s="7">
+        <v>67830</v>
+      </c>
+      <c r="D151" s="7">
+        <v>34859</v>
+      </c>
+      <c r="E151" s="7">
+        <v>32971</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="20" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="20" customHeight="1">
+      <c r="C152" s="7">
+        <v>46516</v>
+      </c>
+      <c r="D152" s="7">
+        <v>23872</v>
+      </c>
+      <c r="E152" s="7">
+        <v>22644</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="20" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="20" customHeight="1">
+      <c r="C153" s="7">
+        <v>37797</v>
+      </c>
+      <c r="D153" s="7">
+        <v>19582</v>
+      </c>
+      <c r="E153" s="7">
+        <v>18215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="20" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="20" customHeight="1">
+      <c r="C154" s="7">
+        <v>40982</v>
+      </c>
+      <c r="D154" s="7">
+        <v>21159</v>
+      </c>
+      <c r="E154" s="7">
+        <v>19823</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="20" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="20" customHeight="1">
+      <c r="C155" s="7">
+        <v>35027</v>
+      </c>
+      <c r="D155" s="7">
+        <v>18304</v>
+      </c>
+      <c r="E155" s="7">
+        <v>16723</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="20" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="20" customHeight="1">
+      <c r="C156" s="7">
+        <v>42500</v>
+      </c>
+      <c r="D156" s="7">
+        <v>21999</v>
+      </c>
+      <c r="E156" s="7">
+        <v>20501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="20" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="20" customHeight="1">
+      <c r="C157" s="7">
+        <v>23620</v>
+      </c>
+      <c r="D157" s="7">
+        <v>12713</v>
+      </c>
+      <c r="E157" s="7">
+        <v>10907</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="20" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="20" customHeight="1">
+      <c r="C158" s="7">
+        <v>21449</v>
+      </c>
+      <c r="D158" s="7">
+        <v>11251</v>
+      </c>
+      <c r="E158" s="7">
+        <v>10198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="20" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="20" customHeight="1">
+      <c r="C159" s="7">
+        <v>32135</v>
+      </c>
+      <c r="D159" s="7">
+        <v>17477</v>
+      </c>
+      <c r="E159" s="7">
+        <v>14658</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="20" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="20" customHeight="1">
+      <c r="C160" s="7">
+        <v>27393</v>
+      </c>
+      <c r="D160" s="7">
+        <v>14121</v>
+      </c>
+      <c r="E160" s="7">
+        <v>13272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="20" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="20" customHeight="1">
+      <c r="C161" s="7">
+        <v>27859</v>
+      </c>
+      <c r="D161" s="7">
+        <v>14227</v>
+      </c>
+      <c r="E161" s="7">
+        <v>13632</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="20" customHeight="1">
+      <c r="C162" s="7">
+        <v>1595578</v>
+      </c>
+      <c r="D162" s="7">
+        <v>810747</v>
+      </c>
+      <c r="E162" s="7">
+        <v>784831</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="20" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="20" customHeight="1">
+      <c r="C163" s="7">
+        <v>849207</v>
+      </c>
+      <c r="D163" s="7">
+        <v>428830</v>
+      </c>
+      <c r="E163" s="7">
+        <v>420377</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="20" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="20" customHeight="1">
+      <c r="C164" s="7">
+        <v>191661</v>
+      </c>
+      <c r="D164" s="7">
+        <v>95550</v>
+      </c>
+      <c r="E164" s="7">
+        <v>96111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="20" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="20" customHeight="1">
+      <c r="C165" s="7">
+        <v>193966</v>
+      </c>
+      <c r="D165" s="7">
+        <v>99889</v>
+      </c>
+      <c r="E165" s="7">
+        <v>94077</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="20" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="20" customHeight="1">
+      <c r="C166" s="7">
+        <v>195507</v>
+      </c>
+      <c r="D166" s="7">
+        <v>97176</v>
+      </c>
+      <c r="E166" s="7">
+        <v>98331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="20" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="20" customHeight="1">
+      <c r="C167" s="7">
+        <v>268073</v>
+      </c>
+      <c r="D167" s="7">
+        <v>136215</v>
+      </c>
+      <c r="E167" s="7">
+        <v>131858</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="20" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="20" customHeight="1">
+      <c r="C168" s="7">
+        <v>208415</v>
+      </c>
+      <c r="D168" s="7">
+        <v>105552</v>
+      </c>
+      <c r="E168" s="7">
+        <v>102863</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="20" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="20" customHeight="1">
+      <c r="C169" s="7">
+        <v>131360</v>
+      </c>
+      <c r="D169" s="7">
+        <v>65996</v>
+      </c>
+      <c r="E169" s="7">
+        <v>65364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="20" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="20" customHeight="1">
+      <c r="C170" s="7">
+        <v>31524</v>
+      </c>
+      <c r="D170" s="7">
+        <v>15908</v>
+      </c>
+      <c r="E170" s="7">
+        <v>15616</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="20" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="20" customHeight="1">
+      <c r="C171" s="7">
+        <v>49591</v>
+      </c>
+      <c r="D171" s="7">
+        <v>25002</v>
+      </c>
+      <c r="E171" s="7">
+        <v>24589</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="20" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="20" customHeight="1">
+      <c r="C172" s="7">
+        <v>45126</v>
+      </c>
+      <c r="D172" s="7">
+        <v>22541</v>
+      </c>
+      <c r="E172" s="7">
+        <v>22585</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="20" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="20" customHeight="1">
+      <c r="C173" s="7">
+        <v>37247</v>
+      </c>
+      <c r="D173" s="7">
+        <v>19351</v>
+      </c>
+      <c r="E173" s="7">
+        <v>17896</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="20" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="20" customHeight="1">
+      <c r="C174" s="7">
+        <v>86082</v>
+      </c>
+      <c r="D174" s="7">
+        <v>45422</v>
+      </c>
+      <c r="E174" s="7">
+        <v>40660</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="20" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="20" customHeight="1">
+      <c r="C175" s="7">
+        <v>37031</v>
+      </c>
+      <c r="D175" s="7">
+        <v>19084</v>
+      </c>
+      <c r="E175" s="7">
+        <v>17947</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="20" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="20" customHeight="1">
+      <c r="C176" s="7">
+        <v>92133</v>
+      </c>
+      <c r="D176" s="7">
+        <v>48898</v>
+      </c>
+      <c r="E176" s="7">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="20" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="20" customHeight="1">
+      <c r="C177" s="7">
+        <v>27862</v>
+      </c>
+      <c r="D177" s="7">
+        <v>14163</v>
+      </c>
+      <c r="E177" s="7">
+        <v>13699</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="20" customHeight="1">
+      <c r="C178" s="7">
+        <v>2121333</v>
+      </c>
+      <c r="D178" s="7">
+        <v>1085425</v>
+      </c>
+      <c r="E178" s="7">
+        <v>1035908</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="20" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="20" customHeight="1">
+      <c r="C179" s="7">
+        <v>167755</v>
+      </c>
+      <c r="D179" s="7">
+        <v>89316</v>
+      </c>
+      <c r="E179" s="7">
+        <v>78439</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="20" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="20" customHeight="1">
+      <c r="C180" s="7">
+        <v>657701</v>
+      </c>
+      <c r="D180" s="7">
+        <v>336644</v>
+      </c>
+      <c r="E180" s="7">
+        <v>321057</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="20" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="20" customHeight="1">
+      <c r="C181" s="7">
+        <v>255724</v>
+      </c>
+      <c r="D181" s="7">
+        <v>129699</v>
+      </c>
+      <c r="E181" s="7">
+        <v>126025</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="20" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="20" customHeight="1">
+      <c r="C182" s="7">
+        <v>401977</v>
+      </c>
+      <c r="D182" s="7">
+        <v>206945</v>
+      </c>
+      <c r="E182" s="7">
+        <v>195032</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="20" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="20" customHeight="1">
+      <c r="C183" s="7">
+        <v>102768</v>
+      </c>
+      <c r="D183" s="7">
+        <v>51294</v>
+      </c>
+      <c r="E183" s="7">
+        <v>51474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="20" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="20" customHeight="1">
+      <c r="C184" s="7">
+        <v>97268</v>
+      </c>
+      <c r="D184" s="7">
+        <v>49291</v>
+      </c>
+      <c r="E184" s="7">
+        <v>47977</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="20" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="20" customHeight="1">
+      <c r="C185" s="7">
+        <v>332790</v>
+      </c>
+      <c r="D185" s="7">
+        <v>173385</v>
+      </c>
+      <c r="E185" s="7">
+        <v>159405</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="20" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="20" customHeight="1">
+      <c r="C186" s="7">
+        <v>176312</v>
+      </c>
+      <c r="D186" s="7">
+        <v>91940</v>
+      </c>
+      <c r="E186" s="7">
+        <v>84372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="20" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="20" customHeight="1">
+      <c r="C187" s="7">
+        <v>112939</v>
+      </c>
+      <c r="D187" s="7">
+        <v>56356</v>
+      </c>
+      <c r="E187" s="7">
+        <v>56583</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="20" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="20" customHeight="1">
+      <c r="C188" s="7">
+        <v>44155</v>
+      </c>
+      <c r="D188" s="7">
+        <v>22018</v>
+      </c>
+      <c r="E188" s="7">
+        <v>22137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="20" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="20" customHeight="1">
+      <c r="C189" s="7">
+        <v>50088</v>
+      </c>
+      <c r="D189" s="7">
+        <v>25315</v>
+      </c>
+      <c r="E189" s="7">
+        <v>24773</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="20" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="20" customHeight="1">
+      <c r="C190" s="7">
+        <v>62523</v>
+      </c>
+      <c r="D190" s="7">
+        <v>31046</v>
+      </c>
+      <c r="E190" s="7">
+        <v>31477</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="20" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="20" customHeight="1">
+      <c r="C191" s="7">
+        <v>50057</v>
+      </c>
+      <c r="D191" s="7">
+        <v>24739</v>
+      </c>
+      <c r="E191" s="7">
+        <v>25318</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="20" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="20" customHeight="1">
+      <c r="C192" s="7">
+        <v>30278</v>
+      </c>
+      <c r="D192" s="7">
+        <v>15401</v>
+      </c>
+      <c r="E192" s="7">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="20" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="20" customHeight="1">
+      <c r="C193" s="7">
+        <v>98099</v>
+      </c>
+      <c r="D193" s="7">
+        <v>48896</v>
+      </c>
+      <c r="E193" s="7">
+        <v>49203</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="20" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="20" customHeight="1">
+      <c r="C194" s="7">
+        <v>77206</v>
+      </c>
+      <c r="D194" s="7">
+        <v>38748</v>
+      </c>
+      <c r="E194" s="7">
+        <v>38458</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="20" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="20" customHeight="1">
+      <c r="C195" s="7">
+        <v>61394</v>
+      </c>
+      <c r="D195" s="7">
+        <v>31036</v>
+      </c>
+      <c r="E195" s="7">
+        <v>30358</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="20" customHeight="1">
+      <c r="C196" s="7">
+        <v>1771776</v>
+      </c>
+      <c r="D196" s="7">
+        <v>881608</v>
+      </c>
+      <c r="E196" s="7">
+        <v>890168</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="20" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="20" customHeight="1">
+      <c r="C197" s="7">
+        <v>652695</v>
+      </c>
+      <c r="D197" s="7">
+        <v>320851</v>
+      </c>
+      <c r="E197" s="7">
+        <v>331844</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="20" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="20" customHeight="1">
+      <c r="C198" s="7">
+        <v>333820</v>
+      </c>
+      <c r="D198" s="7">
+        <v>162473</v>
+      </c>
+      <c r="E198" s="7">
+        <v>171347</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="20" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="20" customHeight="1">
+      <c r="C199" s="7">
+        <v>318875</v>
+      </c>
+      <c r="D199" s="7">
+        <v>158378</v>
+      </c>
+      <c r="E199" s="7">
+        <v>160497</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="20" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="20" customHeight="1">
+      <c r="C200" s="7">
+        <v>0</v>
+      </c>
+      <c r="D200" s="7">
+        <v>0</v>
+      </c>
+      <c r="E200" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="20" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="20" customHeight="1">
+      <c r="C201" s="7">
+        <v>262819</v>
+      </c>
+      <c r="D201" s="7">
+        <v>133035</v>
+      </c>
+      <c r="E201" s="7">
+        <v>129784</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="20" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="20" customHeight="1">
+      <c r="C202" s="7">
+        <v>274317</v>
+      </c>
+      <c r="D202" s="7">
+        <v>136654</v>
+      </c>
+      <c r="E202" s="7">
+        <v>137663</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="20" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="20" customHeight="1">
+      <c r="C203" s="7">
+        <v>0</v>
+      </c>
+      <c r="D203" s="7">
+        <v>0</v>
+      </c>
+      <c r="E203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="20" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="20" customHeight="1">
+      <c r="C204" s="7">
+        <v>105282</v>
+      </c>
+      <c r="D204" s="7">
+        <v>52382</v>
+      </c>
+      <c r="E204" s="7">
+        <v>52900</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="20" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="20" customHeight="1">
+      <c r="C205" s="7">
+        <v>78165</v>
+      </c>
+      <c r="D205" s="7">
+        <v>38344</v>
+      </c>
+      <c r="E205" s="7">
+        <v>39821</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="20" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="20" customHeight="1">
+      <c r="C206" s="7">
+        <v>81205</v>
+      </c>
+      <c r="D206" s="7">
+        <v>40356</v>
+      </c>
+      <c r="E206" s="7">
+        <v>40849</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="20" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="20" customHeight="1">
+      <c r="C207" s="7">
+        <v>91711</v>
+      </c>
+      <c r="D207" s="7">
+        <v>47152</v>
+      </c>
+      <c r="E207" s="7">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="20" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="20" customHeight="1">
+      <c r="C208" s="7">
+        <v>24652</v>
+      </c>
+      <c r="D208" s="7">
+        <v>12536</v>
+      </c>
+      <c r="E208" s="7">
+        <v>12116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="20" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="20" customHeight="1">
+      <c r="C209" s="7">
+        <v>23540</v>
+      </c>
+      <c r="D209" s="7">
+        <v>11753</v>
+      </c>
+      <c r="E209" s="7">
+        <v>11787</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="20" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="20" customHeight="1">
+      <c r="C210" s="7">
+        <v>21425</v>
+      </c>
+      <c r="D210" s="7">
+        <v>10739</v>
+      </c>
+      <c r="E210" s="7">
+        <v>10686</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="20" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="20" customHeight="1">
+      <c r="C211" s="7">
+        <v>26498</v>
+      </c>
+      <c r="D211" s="7">
+        <v>13576</v>
+      </c>
+      <c r="E211" s="7">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="20" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="20" customHeight="1">
+      <c r="C212" s="7">
+        <v>26707</v>
+      </c>
+      <c r="D212" s="7">
+        <v>13141</v>
+      </c>
+      <c r="E212" s="7">
+        <v>13566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="20" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="20" customHeight="1">
+      <c r="C213" s="7">
+        <v>52543</v>
+      </c>
+      <c r="D213" s="7">
+        <v>26115</v>
+      </c>
+      <c r="E213" s="7">
+        <v>26428</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="20" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="20" customHeight="1">
+      <c r="C214" s="7">
+        <v>50217</v>
+      </c>
+      <c r="D214" s="7">
+        <v>24974</v>
+      </c>
+      <c r="E214" s="7">
+        <v>25243</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="20" customHeight="1">
+      <c r="C215" s="7">
+        <v>1819157</v>
+      </c>
+      <c r="D215" s="7">
+        <v>915996</v>
+      </c>
+      <c r="E215" s="7">
+        <v>903161</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="20" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="20" customHeight="1">
+      <c r="C216" s="7">
+        <v>216994</v>
+      </c>
+      <c r="D216" s="7">
+        <v>107880</v>
+      </c>
+      <c r="E216" s="7">
+        <v>109114</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="20" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="20" customHeight="1">
+      <c r="C217" s="7">
+        <v>275011</v>
+      </c>
+      <c r="D217" s="7">
+        <v>140028</v>
+      </c>
+      <c r="E217" s="7">
+        <v>134983</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="20" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="20" customHeight="1">
+      <c r="C218" s="7">
+        <v>279069</v>
+      </c>
+      <c r="D218" s="7">
+        <v>139135</v>
+      </c>
+      <c r="E218" s="7">
+        <v>139934</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="20" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="20" customHeight="1">
+      <c r="C219" s="7">
+        <v>115762</v>
+      </c>
+      <c r="D219" s="7">
+        <v>58399</v>
+      </c>
+      <c r="E219" s="7">
+        <v>57363</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="20" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="20" customHeight="1">
+      <c r="C220" s="7">
+        <v>152145</v>
+      </c>
+      <c r="D220" s="7">
+        <v>79499</v>
+      </c>
+      <c r="E220" s="7">
+        <v>72646</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="20" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="20" customHeight="1">
+      <c r="C221" s="7">
+        <v>45776</v>
+      </c>
+      <c r="D221" s="7">
+        <v>23184</v>
+      </c>
+      <c r="E221" s="7">
+        <v>22592</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="20" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" ht="20" customHeight="1">
+      <c r="C222" s="7">
+        <v>27114</v>
+      </c>
+      <c r="D222" s="7">
+        <v>13395</v>
+      </c>
+      <c r="E222" s="7">
+        <v>13719</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="20" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" ht="20" customHeight="1">
+      <c r="C223" s="7">
+        <v>24761</v>
+      </c>
+      <c r="D223" s="7">
+        <v>12104</v>
+      </c>
+      <c r="E223" s="7">
+        <v>12657</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="20" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="20" customHeight="1">
+      <c r="C224" s="7">
+        <v>62048</v>
+      </c>
+      <c r="D224" s="7">
+        <v>30255</v>
+      </c>
+      <c r="E224" s="7">
+        <v>31793</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="20" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="20" customHeight="1">
+      <c r="C225" s="7">
+        <v>38614</v>
+      </c>
+      <c r="D225" s="7">
+        <v>18888</v>
+      </c>
+      <c r="E225" s="7">
+        <v>19726</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="20" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="20" customHeight="1">
+      <c r="C226" s="7">
+        <v>62085</v>
+      </c>
+      <c r="D226" s="7">
+        <v>30689</v>
+      </c>
+      <c r="E226" s="7">
+        <v>31396</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="20" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" ht="20" customHeight="1">
+      <c r="C227" s="7">
+        <v>35797</v>
+      </c>
+      <c r="D227" s="7">
+        <v>17487</v>
+      </c>
+      <c r="E227" s="7">
+        <v>18310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="20" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" ht="20" customHeight="1">
+      <c r="C228" s="7">
+        <v>33223</v>
+      </c>
+      <c r="D228" s="7">
+        <v>16138</v>
+      </c>
+      <c r="E228" s="7">
+        <v>17085</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="20" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="20" customHeight="1">
+      <c r="C229" s="7">
+        <v>66001</v>
+      </c>
+      <c r="D229" s="7">
+        <v>32811</v>
+      </c>
+      <c r="E229" s="7">
+        <v>33190</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="20" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="20" customHeight="1">
+      <c r="C230" s="7">
+        <v>52555</v>
+      </c>
+      <c r="D230" s="7">
+        <v>27413</v>
+      </c>
+      <c r="E230" s="7">
+        <v>25142</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="20" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" ht="20" customHeight="1">
+      <c r="C231" s="7">
+        <v>90784</v>
+      </c>
+      <c r="D231" s="7">
+        <v>45693</v>
+      </c>
+      <c r="E231" s="7">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="20" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="20" customHeight="1">
+      <c r="C232" s="7">
+        <v>30875</v>
+      </c>
+      <c r="D232" s="7">
+        <v>15581</v>
+      </c>
+      <c r="E232" s="7">
+        <v>15294</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="20" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" ht="20" customHeight="1">
+      <c r="C233" s="7">
+        <v>52202</v>
+      </c>
+      <c r="D233" s="7">
+        <v>26102</v>
+      </c>
+      <c r="E233" s="7">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="20" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="20" customHeight="1">
+      <c r="C234" s="7">
+        <v>43118</v>
+      </c>
+      <c r="D234" s="7">
+        <v>22170</v>
+      </c>
+      <c r="E234" s="7">
+        <v>20948</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="20" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="20" customHeight="1">
+      <c r="C235" s="7">
+        <v>47754</v>
+      </c>
+      <c r="D235" s="7">
+        <v>24087</v>
+      </c>
+      <c r="E235" s="7">
+        <v>23667</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="20" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" ht="20" customHeight="1">
+      <c r="C236" s="7">
+        <v>29559</v>
+      </c>
+      <c r="D236" s="7">
+        <v>14686</v>
+      </c>
+      <c r="E236" s="7">
+        <v>14873</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="20" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="20" customHeight="1">
+      <c r="C237" s="7">
+        <v>37910</v>
+      </c>
+      <c r="D237" s="7">
+        <v>20372</v>
+      </c>
+      <c r="E237" s="7">
+        <v>17538</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="20" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" ht="20" customHeight="1">
+      <c r="C238" s="7">
+        <v>2603389</v>
+      </c>
+      <c r="D238" s="7">
+        <v>1313237</v>
+      </c>
+      <c r="E238" s="7">
+        <v>1290152</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="20" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" ht="20" customHeight="1">
+      <c r="C239" s="7">
+        <v>497546</v>
+      </c>
+      <c r="D239" s="7">
+        <v>252051</v>
+      </c>
+      <c r="E239" s="7">
+        <v>245495</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="20" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" ht="20" customHeight="1">
+      <c r="C240" s="7">
+        <v>228001</v>
+      </c>
+      <c r="D240" s="7">
+        <v>118091</v>
+      </c>
+      <c r="E240" s="7">
+        <v>109910</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="20" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" ht="20" customHeight="1">
+      <c r="C241" s="7">
+        <v>269545</v>
+      </c>
+      <c r="D241" s="7">
+        <v>133960</v>
+      </c>
+      <c r="E241" s="7">
+        <v>135585</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="20" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="20" customHeight="1">
+      <c r="C242" s="7">
+        <v>249928</v>
+      </c>
+      <c r="D242" s="7">
+        <v>125075</v>
+      </c>
+      <c r="E242" s="7">
+        <v>124853</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="20" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="20" customHeight="1">
+      <c r="C243" s="7">
+        <v>139477</v>
+      </c>
+      <c r="D243" s="7">
+        <v>69957</v>
+      </c>
+      <c r="E243" s="7">
+        <v>69520</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="20" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" ht="20" customHeight="1">
+      <c r="C244" s="7">
+        <v>155020</v>
+      </c>
+      <c r="D244" s="7">
+        <v>76663</v>
+      </c>
+      <c r="E244" s="7">
+        <v>78357</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="20" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="20" customHeight="1">
+      <c r="C245" s="7">
+        <v>407993</v>
+      </c>
+      <c r="D245" s="7">
+        <v>209839</v>
+      </c>
+      <c r="E245" s="7">
+        <v>198154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="20" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" ht="20" customHeight="1">
+      <c r="C246" s="7">
+        <v>100901</v>
+      </c>
+      <c r="D246" s="7">
+        <v>50023</v>
+      </c>
+      <c r="E246" s="7">
+        <v>50878</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="20" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" ht="20" customHeight="1">
+      <c r="C247" s="7">
+        <v>101181</v>
+      </c>
+      <c r="D247" s="7">
+        <v>51468</v>
+      </c>
+      <c r="E247" s="7">
+        <v>49713</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="20" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" ht="20" customHeight="1">
+      <c r="C248" s="7">
+        <v>95026</v>
+      </c>
+      <c r="D248" s="7">
+        <v>46747</v>
+      </c>
+      <c r="E248" s="7">
+        <v>48279</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="20" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" ht="20" customHeight="1">
+      <c r="C249" s="7">
+        <v>70847</v>
+      </c>
+      <c r="D249" s="7">
+        <v>34814</v>
+      </c>
+      <c r="E249" s="7">
+        <v>36033</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="20" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" ht="20" customHeight="1">
+      <c r="C250" s="7">
+        <v>267710</v>
+      </c>
+      <c r="D250" s="7">
+        <v>134722</v>
+      </c>
+      <c r="E250" s="7">
+        <v>132988</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="20" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="20" customHeight="1">
+      <c r="C251" s="7">
+        <v>23302</v>
+      </c>
+      <c r="D251" s="7">
+        <v>11927</v>
+      </c>
+      <c r="E251" s="7">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="20" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" ht="20" customHeight="1">
+      <c r="C252" s="7">
+        <v>50172</v>
+      </c>
+      <c r="D252" s="7">
+        <v>24690</v>
+      </c>
+      <c r="E252" s="7">
+        <v>25482</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="20" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" ht="20" customHeight="1">
+      <c r="C253" s="7">
+        <v>24289</v>
+      </c>
+      <c r="D253" s="7">
+        <v>12155</v>
+      </c>
+      <c r="E253" s="7">
+        <v>12134</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="20" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" ht="20" customHeight="1">
+      <c r="C254" s="7">
+        <v>16066</v>
+      </c>
+      <c r="D254" s="7">
+        <v>8020</v>
+      </c>
+      <c r="E254" s="7">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="20" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" ht="20" customHeight="1">
+      <c r="C255" s="7">
+        <v>34759</v>
+      </c>
+      <c r="D255" s="7">
+        <v>16545</v>
+      </c>
+      <c r="E255" s="7">
+        <v>18214</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="20" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="20" customHeight="1">
+      <c r="C256" s="7">
+        <v>41544</v>
+      </c>
+      <c r="D256" s="7">
+        <v>20489</v>
+      </c>
+      <c r="E256" s="7">
+        <v>21055</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="20" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" ht="20" customHeight="1">
+      <c r="C257" s="7">
+        <v>30206</v>
+      </c>
+      <c r="D257" s="7">
+        <v>15484</v>
+      </c>
+      <c r="E257" s="7">
+        <v>14722</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="20" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" ht="20" customHeight="1">
+      <c r="C258" s="7">
+        <v>42595</v>
+      </c>
+      <c r="D258" s="7">
+        <v>22178</v>
+      </c>
+      <c r="E258" s="7">
+        <v>20417</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="20" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" ht="20" customHeight="1">
+      <c r="C259" s="7">
+        <v>112626</v>
+      </c>
+      <c r="D259" s="7">
+        <v>58911</v>
+      </c>
+      <c r="E259" s="7">
+        <v>53715</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="20" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" ht="20" customHeight="1">
+      <c r="C260" s="7">
+        <v>55793</v>
+      </c>
+      <c r="D260" s="7">
+        <v>27398</v>
+      </c>
+      <c r="E260" s="7">
+        <v>28395</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="20" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" ht="20" customHeight="1">
+      <c r="C261" s="7">
+        <v>30272</v>
+      </c>
+      <c r="D261" s="7">
+        <v>15361</v>
+      </c>
+      <c r="E261" s="7">
+        <v>14911</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="20" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" ht="20" customHeight="1">
+      <c r="C262" s="7">
+        <v>47123</v>
+      </c>
+      <c r="D262" s="7">
+        <v>23729</v>
+      </c>
+      <c r="E262" s="7">
+        <v>23394</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="20" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" ht="20" customHeight="1">
+      <c r="C263" s="7">
+        <v>9013</v>
+      </c>
+      <c r="D263" s="7">
+        <v>4991</v>
+      </c>
+      <c r="E263" s="7">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="20" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" ht="20" customHeight="1">
+      <c r="C264" s="7">
+        <v>3284495</v>
+      </c>
+      <c r="D264" s="7">
+        <v>1653654</v>
+      </c>
+      <c r="E264" s="7">
+        <v>1630841</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="20" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" ht="20" customHeight="1">
+      <c r="C265" s="7">
+        <v>1023269</v>
+      </c>
+      <c r="D265" s="7">
+        <v>518179</v>
+      </c>
+      <c r="E265" s="7">
+        <v>505090</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="20" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" ht="20" customHeight="1">
+      <c r="C266" s="7">
+        <v>216095</v>
+      </c>
+      <c r="D266" s="7">
+        <v>109983</v>
+      </c>
+      <c r="E266" s="7">
+        <v>106112</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="20" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" ht="20" customHeight="1">
+      <c r="C267" s="7">
+        <v>248840</v>
+      </c>
+      <c r="D267" s="7">
+        <v>126910</v>
+      </c>
+      <c r="E267" s="7">
+        <v>121930</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="20" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="20" customHeight="1">
+      <c r="C268" s="7">
+        <v>179985</v>
+      </c>
+      <c r="D268" s="7">
+        <v>89511</v>
+      </c>
+      <c r="E268" s="7">
+        <v>90474</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="20" customHeight="1">
       <c r="A269" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" ht="20" customHeight="1">
+      <c r="C269" s="7">
+        <v>184137</v>
+      </c>
+      <c r="D269" s="7">
+        <v>91963</v>
+      </c>
+      <c r="E269" s="7">
+        <v>92174</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="20" customHeight="1">
       <c r="A270" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" ht="20" customHeight="1">
+      <c r="C270" s="7">
+        <v>194212</v>
+      </c>
+      <c r="D270" s="7">
+        <v>99812</v>
+      </c>
+      <c r="E270" s="7">
+        <v>94400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="20" customHeight="1">
       <c r="A271" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" ht="20" customHeight="1">
+      <c r="C271" s="7">
+        <v>344293</v>
+      </c>
+      <c r="D271" s="7">
+        <v>170055</v>
+      </c>
+      <c r="E271" s="7">
+        <v>174238</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="20" customHeight="1">
       <c r="A272" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" ht="20" customHeight="1">
+      <c r="C272" s="7">
+        <v>123158</v>
+      </c>
+      <c r="D272" s="7">
+        <v>61825</v>
+      </c>
+      <c r="E272" s="7">
+        <v>61333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="20" customHeight="1">
       <c r="A273" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" ht="20" customHeight="1">
+      <c r="C273" s="7">
+        <v>109518</v>
+      </c>
+      <c r="D273" s="7">
+        <v>55268</v>
+      </c>
+      <c r="E273" s="7">
+        <v>54250</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="20" customHeight="1">
       <c r="A274" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" ht="20" customHeight="1">
+      <c r="C274" s="7">
+        <v>0</v>
+      </c>
+      <c r="D274" s="7">
+        <v>0</v>
+      </c>
+      <c r="E274" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="20" customHeight="1">
       <c r="A275" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" ht="20" customHeight="1">
+      <c r="C275" s="7">
+        <v>535734</v>
+      </c>
+      <c r="D275" s="7">
+        <v>270978</v>
+      </c>
+      <c r="E275" s="7">
+        <v>264756</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="20" customHeight="1">
       <c r="A276" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" ht="20" customHeight="1">
+      <c r="C276" s="7">
+        <v>0</v>
+      </c>
+      <c r="D276" s="7">
+        <v>0</v>
+      </c>
+      <c r="E276" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="20" customHeight="1">
       <c r="A277" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" ht="20" customHeight="1">
+      <c r="C277" s="7">
+        <v>102725</v>
+      </c>
+      <c r="D277" s="7">
+        <v>50498</v>
+      </c>
+      <c r="E277" s="7">
+        <v>52227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="20" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" ht="20" customHeight="1">
+      <c r="C278" s="7">
+        <v>237090</v>
+      </c>
+      <c r="D278" s="7">
+        <v>123987</v>
+      </c>
+      <c r="E278" s="7">
+        <v>113103</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="20" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" ht="20" customHeight="1">
+      <c r="C279" s="7">
+        <v>353410</v>
+      </c>
+      <c r="D279" s="7">
+        <v>177096</v>
+      </c>
+      <c r="E279" s="7">
+        <v>176314</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="20" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" ht="20" customHeight="1">
+      <c r="C280" s="7">
+        <v>0</v>
+      </c>
+      <c r="D280" s="7">
+        <v>0</v>
+      </c>
+      <c r="E280" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="20" customHeight="1">
       <c r="A281" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" ht="20" customHeight="1">
+      <c r="C281" s="7">
+        <v>26100</v>
+      </c>
+      <c r="D281" s="7">
+        <v>12907</v>
+      </c>
+      <c r="E281" s="7">
+        <v>13193</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="20" customHeight="1">
       <c r="A282" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" ht="20" customHeight="1">
+      <c r="C282" s="7">
+        <v>61613</v>
+      </c>
+      <c r="D282" s="7">
+        <v>31451</v>
+      </c>
+      <c r="E282" s="7">
+        <v>30162</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="20" customHeight="1">
       <c r="A283" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" ht="20" customHeight="1">
+      <c r="C283" s="7">
+        <v>58633</v>
+      </c>
+      <c r="D283" s="7">
+        <v>29300</v>
+      </c>
+      <c r="E283" s="7">
+        <v>29333</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="20" customHeight="1">
       <c r="A284" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" ht="20" customHeight="1">
+      <c r="C284" s="7">
+        <v>49913</v>
+      </c>
+      <c r="D284" s="7">
+        <v>25074</v>
+      </c>
+      <c r="E284" s="7">
+        <v>24839</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="20" customHeight="1">
       <c r="A285" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" ht="20" customHeight="1">
+      <c r="C285" s="7">
+        <v>41727</v>
+      </c>
+      <c r="D285" s="7">
+        <v>20260</v>
+      </c>
+      <c r="E285" s="7">
+        <v>21467</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="20" customHeight="1">
       <c r="A286" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" ht="20" customHeight="1">
+      <c r="C286" s="7">
+        <v>42630</v>
+      </c>
+      <c r="D286" s="7">
+        <v>21325</v>
+      </c>
+      <c r="E286" s="7">
+        <v>21305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="20" customHeight="1">
       <c r="A287" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" ht="20" customHeight="1">
+      <c r="C287" s="7">
+        <v>34062</v>
+      </c>
+      <c r="D287" s="7">
+        <v>16867</v>
+      </c>
+      <c r="E287" s="7">
+        <v>17195</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="20" customHeight="1">
       <c r="A288" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" ht="20" customHeight="1">
+      <c r="C288" s="7">
+        <v>37900</v>
+      </c>
+      <c r="D288" s="7">
+        <v>18355</v>
+      </c>
+      <c r="E288" s="7">
+        <v>19545</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="20" customHeight="1">
       <c r="A289" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" ht="20" customHeight="1">
+      <c r="C289" s="7">
+        <v>60475</v>
+      </c>
+      <c r="D289" s="7">
+        <v>29691</v>
+      </c>
+      <c r="E289" s="7">
+        <v>30784</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="20" customHeight="1">
       <c r="A290" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="20" customHeight="1">
+      <c r="C290" s="7">
+        <v>42245</v>
+      </c>
+      <c r="D290" s="7">
+        <v>20538</v>
+      </c>
+      <c r="E290" s="7">
+        <v>21707</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="20" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" ht="20" customHeight="1">
+      <c r="C291" s="7">
+        <v>678324</v>
+      </c>
+      <c r="D291" s="7">
+        <v>339731</v>
+      </c>
+      <c r="E291" s="7">
+        <v>338593</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="20" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" ht="20" customHeight="1">
+      <c r="C292" s="7">
+        <v>493459</v>
+      </c>
+      <c r="D292" s="7">
+        <v>246594</v>
+      </c>
+      <c r="E292" s="7">
+        <v>246865</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="20" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>267</v>
+      </c>
+      <c r="C293" s="7">
+        <v>184865</v>
+      </c>
+      <c r="D293" s="7">
+        <v>93137</v>
+      </c>
+      <c r="E293" s="7">
+        <v>91728</v>
       </c>
     </row>
   </sheetData>
